--- a/ReadingListInformation/CBRO/DC/Events/XLSXandCSV/[DC Comics] Behold! The Millennium Giants! (WEB-CBRO)-USER.xlsx
+++ b/ReadingListInformation/CBRO/DC/Events/XLSXandCSV/[DC Comics] Behold! The Millennium Giants! (WEB-CBRO)-USER.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="51">
   <si>
     <t>SeriesName</t>
   </si>
@@ -49,6 +49,9 @@
     <t>CV Issue Number</t>
   </si>
   <si>
+    <t>CV Series Publisher</t>
+  </si>
+  <si>
     <t>CV Cover Image</t>
   </si>
   <si>
@@ -58,9 +61,6 @@
     <t>Days Between Issues</t>
   </si>
   <si>
-    <t>CV Series Publisher</t>
-  </si>
-  <si>
     <t>Superman: Man of Steel</t>
   </si>
   <si>
@@ -88,6 +88,39 @@
     <t>Action Comics</t>
   </si>
   <si>
+    <t>78</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>134</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>557</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>744</t>
+  </si>
+  <si>
+    <t>79</t>
+  </si>
+  <si>
+    <t>135</t>
+  </si>
+  <si>
     <t>Issue</t>
   </si>
   <si>
@@ -97,34 +130,7 @@
     <t>Superman: The Man of Steel</t>
   </si>
   <si>
-    <t>78</t>
-  </si>
-  <si>
-    <t>43</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>nan</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>557</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>744</t>
-  </si>
-  <si>
-    <t>79</t>
+    <t>DC Comics</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
@@ -139,7 +145,7 @@
     <t>https://comicvine.gamespot.com/issue/4000-44844/</t>
   </si>
   <si>
-    <t>https://comicvine.gamespot.com/issue/4000-116566/</t>
+    <t>https://comicvine.gamespot.com/superman-134-dual-purpose/4000-116566/</t>
   </si>
   <si>
     <t>https://comicvine.gamespot.com/teen-titans-19-to-save-a-country/4000-125731/</t>
@@ -160,10 +166,7 @@
     <t>https://comicvine.gamespot.com/issue/4000-114579/</t>
   </si>
   <si>
-    <t>https://comicvine.gamespot.com/issue/4000-117424/</t>
-  </si>
-  <si>
-    <t>DC Comics</t>
+    <t>https://comicvine.gamespot.com/superman-135-shattered-worlds/4000-117424/</t>
   </si>
 </sst>
 </file>
@@ -596,17 +599,17 @@
       <c r="C2" s="2">
         <v>1991</v>
       </c>
-      <c r="D2" s="2">
-        <v>78</v>
+      <c r="D2" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="F2" s="3">
         <v>35915</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="H2" s="2">
         <v>4571</v>
@@ -615,25 +618,25 @@
         <v>114562</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="K2" s="2">
         <v>1991</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="O2" s="4">
-        <v>29</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>49</v>
+        <v>39</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="P2" s="4">
+        <v>-29</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -646,17 +649,17 @@
       <c r="C3" s="2">
         <v>1994</v>
       </c>
-      <c r="D3" s="2">
-        <v>43</v>
+      <c r="D3" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="F3" s="3">
         <v>35886</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="H3" s="2">
         <v>5230</v>
@@ -671,19 +674,19 @@
         <v>1994</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="N3" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="O3" s="4">
+      <c r="O3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="P3" s="4">
         <v>0</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -696,17 +699,17 @@
       <c r="C4" s="2">
         <v>1997</v>
       </c>
-      <c r="D4" s="2">
-        <v>15</v>
+      <c r="D4" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="F4" s="3">
         <v>35886</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="H4" s="2">
         <v>5944</v>
@@ -721,19 +724,19 @@
         <v>1997</v>
       </c>
       <c r="L4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="P4" s="4">
         <v>29</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="N4" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="O4" s="4">
-        <v>29</v>
-      </c>
-      <c r="P4" s="2" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -746,17 +749,17 @@
       <c r="C5" s="2">
         <v>1987</v>
       </c>
-      <c r="D5" s="2">
-        <v>134</v>
+      <c r="D5" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="F5" s="3">
         <v>35915</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="H5" s="2">
         <v>3816</v>
@@ -771,19 +774,19 @@
         <v>1987</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="O5" s="4">
-        <v>29</v>
-      </c>
-      <c r="P5" s="2" t="s">
-        <v>49</v>
+        <v>39</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="P5" s="4">
+        <v>-29</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -796,17 +799,17 @@
       <c r="C6" s="2">
         <v>1996</v>
       </c>
-      <c r="D6" s="2">
-        <v>19</v>
+      <c r="D6" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="F6" s="3">
         <v>35886</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="H6" s="2">
         <v>19986</v>
@@ -821,19 +824,19 @@
         <v>1996</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="O6" s="4">
+        <v>39</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="P6" s="4">
         <v>29</v>
-      </c>
-      <c r="P6" s="2" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -846,17 +849,17 @@
       <c r="C7" s="2">
         <v>1996</v>
       </c>
-      <c r="D7" s="2">
-        <v>20</v>
+      <c r="D7" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="F7" s="3">
         <v>35915</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="H7" s="2">
         <v>5766</v>
@@ -871,19 +874,19 @@
         <v>1996</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="O7" s="4">
+        <v>39</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="P7" s="4">
         <v>31</v>
-      </c>
-      <c r="P7" s="2" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -896,17 +899,17 @@
       <c r="C8" s="2">
         <v>1987</v>
       </c>
-      <c r="D8" s="2">
-        <v>557</v>
+      <c r="D8" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="F8" s="3">
         <v>35946</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="H8" s="2">
         <v>3778</v>
@@ -921,19 +924,19 @@
         <v>1987</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="O8" s="4">
-        <v>30</v>
-      </c>
-      <c r="P8" s="2" t="s">
-        <v>49</v>
+        <v>39</v>
+      </c>
+      <c r="O8" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="P8" s="4">
+        <v>-30</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -946,17 +949,17 @@
       <c r="C9" s="2">
         <v>1994</v>
       </c>
-      <c r="D9" s="2">
-        <v>50</v>
+      <c r="D9" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="F9" s="3">
         <v>35916</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="H9" s="2">
         <v>5260</v>
@@ -971,19 +974,19 @@
         <v>1994</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="O9" s="4">
+        <v>39</v>
+      </c>
+      <c r="O9" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="P9" s="4">
         <v>30</v>
-      </c>
-      <c r="P9" s="2" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -996,17 +999,17 @@
       <c r="C10" s="2">
         <v>1938</v>
       </c>
-      <c r="D10" s="2">
-        <v>744</v>
+      <c r="D10" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="F10" s="3">
         <v>35946</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="H10" s="2">
         <v>18005</v>
@@ -1021,19 +1024,19 @@
         <v>1938</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="O10" s="4">
+        <v>39</v>
+      </c>
+      <c r="O10" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="P10" s="4">
         <v>0</v>
-      </c>
-      <c r="P10" s="2" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -1046,17 +1049,17 @@
       <c r="C11" s="2">
         <v>1991</v>
       </c>
-      <c r="D11" s="2">
-        <v>79</v>
+      <c r="D11" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="F11" s="3">
         <v>35946</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="H11" s="2">
         <v>4571</v>
@@ -1065,25 +1068,25 @@
         <v>114579</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="K11" s="2">
         <v>1991</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="O11" s="4">
+        <v>39</v>
+      </c>
+      <c r="O11" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="P11" s="4">
         <v>0</v>
-      </c>
-      <c r="P11" s="2" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -1096,17 +1099,17 @@
       <c r="C12" s="2">
         <v>1987</v>
       </c>
-      <c r="D12" s="2">
-        <v>135</v>
+      <c r="D12" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="F12" s="3">
         <v>35946</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="H12" s="2">
         <v>3816</v>
@@ -1121,34 +1124,34 @@
         <v>1987</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="O12" s="4">
+        <v>39</v>
+      </c>
+      <c r="O12" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="P12" s="4">
         <v>0</v>
-      </c>
-      <c r="P12" s="2" t="s">
-        <v>49</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="N2" r:id="rId1"/>
-    <hyperlink ref="N3" r:id="rId2"/>
-    <hyperlink ref="N4" r:id="rId3"/>
-    <hyperlink ref="N5" r:id="rId4"/>
-    <hyperlink ref="N6" r:id="rId5"/>
-    <hyperlink ref="N7" r:id="rId6"/>
-    <hyperlink ref="N8" r:id="rId7"/>
-    <hyperlink ref="N9" r:id="rId8"/>
-    <hyperlink ref="N10" r:id="rId9"/>
-    <hyperlink ref="N11" r:id="rId10"/>
-    <hyperlink ref="N12" r:id="rId11"/>
+    <hyperlink ref="O2" r:id="rId1"/>
+    <hyperlink ref="O3" r:id="rId2"/>
+    <hyperlink ref="O4" r:id="rId3"/>
+    <hyperlink ref="O5" r:id="rId4"/>
+    <hyperlink ref="O6" r:id="rId5"/>
+    <hyperlink ref="O7" r:id="rId6"/>
+    <hyperlink ref="O8" r:id="rId7"/>
+    <hyperlink ref="O9" r:id="rId8"/>
+    <hyperlink ref="O10" r:id="rId9"/>
+    <hyperlink ref="O11" r:id="rId10"/>
+    <hyperlink ref="O12" r:id="rId11"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
